--- a/EECIP/App_Docs/DataDictionary.xlsx
+++ b/EECIP/App_Docs/DataDictionary.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="536">
   <si>
     <t>EECIP Data Dictionary</t>
   </si>
@@ -1552,7 +1552,76 @@
     <t>System-assigned internal unique ID for an EECIP user account (as stored in T_OE_USER table) that has voted.</t>
   </si>
   <si>
-    <t>Corresponding with EECIP version v1.2</t>
+    <t>Corresponding with EECIP version v1.3</t>
+  </si>
+  <si>
+    <t>Indicates if this tag category is active</t>
+  </si>
+  <si>
+    <t>TAG_DESC</t>
+  </si>
+  <si>
+    <t>Description of tag (used when promoting ocmmunities of interest)</t>
+  </si>
+  <si>
+    <t>PROMOTE_IND</t>
+  </si>
+  <si>
+    <t>Indicates if this tag is promoted as a Community of Interest</t>
+  </si>
+  <si>
+    <t>NOTIFY_DISCUSSION_IND</t>
+  </si>
+  <si>
+    <t>NOTIFY_BADGE_IND</t>
+  </si>
+  <si>
+    <t>Indicates whether the user has opted in to discussion forum notifications</t>
+  </si>
+  <si>
+    <t>Indicates whether the user has opted into badge notifications</t>
+  </si>
+  <si>
+    <t>T_OE_REF_EMAIL_TEMPLATE</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_ID</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_NAME</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_DESC</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_SUBJECT</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_BODY_HTML</t>
+  </si>
+  <si>
+    <t>EMAIL_TEMP_BIDY_TXT</t>
+  </si>
+  <si>
+    <t>The reference listing of different email templates used throughout EECIP for sending out emails to users for a variety of purposes.</t>
+  </si>
+  <si>
+    <t>Unique identifier of the email template.</t>
+  </si>
+  <si>
+    <t>Name of the email template.</t>
+  </si>
+  <si>
+    <t>Description of the email template. This is for an Admin to understand the purpose of this email template.</t>
+  </si>
+  <si>
+    <t>Text string to be used as the email body (for HTML-formatted emails) when sending emails based on this template.</t>
+  </si>
+  <si>
+    <t>Text string to be used as the email subject when sending emails based on this template.</t>
+  </si>
+  <si>
+    <t>Text string to be used as the email body (for plain text-formatted emails) when sending emails based on this template.</t>
   </si>
 </sst>
 </file>
@@ -1954,9 +2023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3900,15 +3971,15 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>56</v>
+        <v>523</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>359</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,50 +4004,50 @@
         <v>1</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>98</v>
+        <v>524</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>100</v>
+        <v>525</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>102</v>
+        <v>526</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>362</v>
+        <v>534</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3984,33 +4055,33 @@
         <v>1</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>49</v>
+        <v>528</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>305</v>
+        <v>535</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4035,27 +4106,33 @@
         <v>1</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="7" t="s">
-        <v>364</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4063,61 +4140,61 @@
         <v>1</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="7" t="s">
-        <v>368</v>
+      <c r="A134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,44 +4202,50 @@
         <v>1</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4187,44 +4270,44 @@
         <v>1</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,67 +4315,61 @@
         <v>1</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>302</v>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4300,16 +4377,16 @@
         <v>1</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,27 +4394,27 @@
         <v>1</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,16 +4422,16 @@
         <v>1</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,50 +4439,44 @@
         <v>1</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>301</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,42 +4484,50 @@
         <v>1</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="7"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4456,16 +4535,16 @@
         <v>1</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>382</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4473,16 +4552,16 @@
         <v>1</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4490,33 +4569,27 @@
         <v>1</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>301</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4524,27 +4597,33 @@
         <v>1</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="7" t="s">
-        <v>384</v>
+      <c r="A161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,16 +4631,16 @@
         <v>1</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,16 +4648,16 @@
         <v>1</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,16 +4665,16 @@
         <v>1</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,50 +4682,42 @@
         <v>1</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>301</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>302</v>
-      </c>
+      <c r="A166" s="6"/>
+      <c r="B166" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4654,27 +4725,33 @@
         <v>1</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="7" t="s">
-        <v>305</v>
+      <c r="A169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4682,16 +4759,16 @@
         <v>1</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,13 +4776,13 @@
         <v>1</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>305</v>
@@ -4716,16 +4793,16 @@
         <v>1</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>133</v>
+        <v>516</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>305</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,16 +4810,16 @@
         <v>1</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4750,33 +4827,27 @@
         <v>1</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>305</v>
+      <c r="A175" s="6"/>
+      <c r="B175" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4801,27 +4872,33 @@
         <v>1</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="7" t="s">
-        <v>389</v>
+      <c r="A178" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4829,16 +4906,16 @@
         <v>1</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>390</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4846,16 +4923,16 @@
         <v>1</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,16 +4940,16 @@
         <v>1</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4880,44 +4957,44 @@
         <v>1</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>393</v>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="7" t="s">
-        <v>394</v>
+      <c r="A184" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4925,33 +5002,33 @@
         <v>1</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4959,16 +5036,16 @@
         <v>1</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4976,27 +5053,33 @@
         <v>1</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="7" t="s">
-        <v>396</v>
+      <c r="A189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5004,16 +5087,16 @@
         <v>1</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,33 +5104,27 @@
         <v>1</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>398</v>
+      <c r="A192" s="6"/>
+      <c r="B192" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,16 +5132,16 @@
         <v>1</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5072,16 +5149,16 @@
         <v>1</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5089,16 +5166,16 @@
         <v>1</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5106,50 +5183,44 @@
         <v>1</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>301</v>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,33 +5228,33 @@
         <v>1</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,44 +5262,44 @@
         <v>1</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>388</v>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,16 +5307,16 @@
         <v>1</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,16 +5324,16 @@
         <v>1</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,16 +5341,16 @@
         <v>1</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,27 +5358,33 @@
         <v>1</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="7" t="s">
-        <v>405</v>
+      <c r="A208" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,50 +5392,50 @@
         <v>1</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,16 +5460,16 @@
         <v>1</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,16 +5477,16 @@
         <v>1</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,50 +5494,44 @@
         <v>1</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5468,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5485,16 +5556,16 @@
         <v>1</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5502,16 +5573,16 @@
         <v>1</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5519,33 +5590,27 @@
         <v>1</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>418</v>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5556,13 +5621,13 @@
         <v>158</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5573,16 +5638,16 @@
         <v>158</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1</v>
       </c>
@@ -5590,16 +5655,16 @@
         <v>158</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>1</v>
       </c>
@@ -5607,13 +5672,13 @@
         <v>158</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5624,13 +5689,13 @@
         <v>158</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5641,13 +5706,13 @@
         <v>158</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5658,16 +5723,16 @@
         <v>158</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>1</v>
       </c>
@@ -5675,13 +5740,13 @@
         <v>158</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5692,13 +5757,13 @@
         <v>158</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5709,16 +5774,16 @@
         <v>158</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>1</v>
       </c>
@@ -5726,13 +5791,13 @@
         <v>158</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5743,16 +5808,16 @@
         <v>158</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>1</v>
       </c>
@@ -5760,13 +5825,13 @@
         <v>158</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5777,290 +5842,296 @@
         <v>158</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>436</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="7" t="s">
-        <v>438</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>195</v>
+        <v>518</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>305</v>
+        <v>520</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>305</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6068,16 +6139,16 @@
         <v>182</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,33 +6156,33 @@
         <v>182</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6119,16 +6190,16 @@
         <v>182</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6136,16 +6207,16 @@
         <v>182</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>305</v>
+        <v>433</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6153,16 +6224,16 @@
         <v>182</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6170,16 +6241,16 @@
         <v>182</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6187,44 +6258,44 @@
         <v>182</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="7" t="s">
-        <v>305</v>
+        <v>438</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6232,7 +6303,7 @@
         <v>182</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>184</v>
@@ -6241,7 +6312,7 @@
         <v>23</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>305</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,16 +6320,16 @@
         <v>182</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,16 +6337,16 @@
         <v>182</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,13 +6354,13 @@
         <v>182</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>305</v>
@@ -6300,106 +6371,118 @@
         <v>182</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,16 +6490,16 @@
         <v>182</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6424,95 +6507,95 @@
         <v>182</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E279" s="5" t="s">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>448</v>
+        <v>305</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="7" t="s">
-        <v>457</v>
+      <c r="A281" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6520,16 +6603,16 @@
         <v>182</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>458</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6537,16 +6620,16 @@
         <v>182</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6554,33 +6637,27 @@
         <v>182</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>305</v>
+      <c r="A285" s="6"/>
+      <c r="B285" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6588,7 +6665,7 @@
         <v>182</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>214</v>
@@ -6601,14 +6678,20 @@
       </c>
     </row>
     <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="7" t="s">
-        <v>465</v>
+      <c r="A287" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6616,61 +6699,61 @@
         <v>182</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C288" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="B289" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="7" t="s">
-        <v>462</v>
+      <c r="A291" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,95 +6761,95 @@
         <v>182</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D292" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D294" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E292" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C294" s="4" t="s">
+      <c r="E294" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D294" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D296" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E297" s="5" t="s">
-        <v>470</v>
+      <c r="A297" s="6"/>
+      <c r="B297" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6774,16 +6857,16 @@
         <v>182</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6791,16 +6874,16 @@
         <v>182</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>305</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6808,16 +6891,16 @@
         <v>182</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6825,16 +6908,16 @@
         <v>182</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>478</v>
+        <v>305</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6842,33 +6925,27 @@
         <v>182</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>305</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="7" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6876,16 +6953,16 @@
         <v>182</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6893,16 +6970,16 @@
         <v>182</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6910,33 +6987,27 @@
         <v>182</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>305</v>
+      <c r="A307" s="6"/>
+      <c r="B307" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="7" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6944,61 +7015,61 @@
         <v>182</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="6"/>
+      <c r="B311" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C309" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E309" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
-      <c r="B310" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>481</v>
+      <c r="C311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="7" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7006,16 +7077,16 @@
         <v>182</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7023,16 +7094,16 @@
         <v>182</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7040,16 +7111,16 @@
         <v>182</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7057,16 +7128,16 @@
         <v>182</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>485</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7074,16 +7145,16 @@
         <v>182</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7091,16 +7162,16 @@
         <v>182</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7108,27 +7179,33 @@
         <v>182</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="7" t="s">
-        <v>473</v>
+      <c r="A319" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,16 +7213,16 @@
         <v>182</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,16 +7230,16 @@
         <v>182</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>489</v>
+        <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,16 +7247,16 @@
         <v>182</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>490</v>
+        <v>305</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7187,16 +7264,16 @@
         <v>182</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>491</v>
+        <v>305</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7204,67 +7281,61 @@
         <v>182</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="6"/>
+      <c r="B326" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7272,16 +7343,16 @@
         <v>182</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,16 +7360,16 @@
         <v>182</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>305</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7306,16 +7377,16 @@
         <v>182</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7323,78 +7394,78 @@
         <v>182</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C333" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C334" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="7" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7402,10 +7473,10 @@
         <v>182</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>23</v>
@@ -7419,16 +7490,16 @@
         <v>182</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7436,27 +7507,33 @@
         <v>182</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="7" t="s">
-        <v>504</v>
+      <c r="A339" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7464,61 +7541,67 @@
         <v>182</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7526,16 +7609,16 @@
         <v>182</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,16 +7626,16 @@
         <v>182</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>508</v>
+        <v>305</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7560,16 +7643,16 @@
         <v>182</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7577,7 +7660,7 @@
         <v>182</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>247</v>
@@ -7586,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7594,16 +7677,16 @@
         <v>182</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7611,15 +7694,269 @@
         <v>182</v>
       </c>
       <c r="B349" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="6"/>
+      <c r="B351" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="6"/>
+      <c r="B355" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="6"/>
+      <c r="B359" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D349" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E349" s="5" t="s">
+      <c r="D365" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="5" t="s">
         <v>511</v>
       </c>
     </row>

--- a/EECIP/App_Docs/DataDictionary.xlsx
+++ b/EECIP/App_Docs/DataDictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="541">
   <si>
     <t>EECIP Data Dictionary</t>
   </si>
@@ -1552,9 +1552,6 @@
     <t>System-assigned internal unique ID for an EECIP user account (as stored in T_OE_USER table) that has voted.</t>
   </si>
   <si>
-    <t>Corresponding with EECIP version v1.3</t>
-  </si>
-  <si>
     <t>Indicates if this tag category is active</t>
   </si>
   <si>
@@ -1622,6 +1619,24 @@
   </si>
   <si>
     <t>Text string to be used as the email body (for plain text-formatted emails) when sending emails based on this template.</t>
+  </si>
+  <si>
+    <t>NO LONGER USED (replaced by T_OE_PROJECT_ORG table)</t>
+  </si>
+  <si>
+    <t>Corresponding with EECIP version v1.3b</t>
+  </si>
+  <si>
+    <t>T_OE_PROJECT_ORGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tables stores all organizations that are associated with a project </t>
+  </si>
+  <si>
+    <t>System-assigned internal unique ID for a project org record.</t>
+  </si>
+  <si>
+    <t>PROJECT_ORG_IDX</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2060,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,15 +3228,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7" t="s">
-        <v>332</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,16 +3244,16 @@
         <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>34</v>
+        <v>540</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>300</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,33 +3261,33 @@
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>36</v>
@@ -3297,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -3309,15 +3324,21 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7" t="s">
-        <v>333</v>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,33 +3346,27 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>70</v>
+        <v>537</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,27 +3391,33 @@
         <v>1</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3404,16 +3425,16 @@
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3421,33 +3442,27 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>337</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,16 +3470,16 @@
         <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,61 +3487,61 @@
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>300</v>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,16 +3549,16 @@
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,16 +3583,16 @@
         <v>1</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,16 +3600,16 @@
         <v>1</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,53 +3617,47 @@
         <v>1</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -3656,13 +3665,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,16 +3682,16 @@
         <v>80</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>1</v>
       </c>
@@ -3690,13 +3699,13 @@
         <v>80</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,16 +3716,16 @@
         <v>80</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>1</v>
       </c>
@@ -3724,13 +3733,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,16 +3750,16 @@
         <v>80</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>1</v>
       </c>
@@ -3758,13 +3767,13 @@
         <v>80</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,13 +3784,13 @@
         <v>80</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3792,13 +3801,13 @@
         <v>80</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,16 +3818,16 @@
         <v>80</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>1</v>
       </c>
@@ -3826,16 +3835,16 @@
         <v>80</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>1</v>
       </c>
@@ -3843,16 +3852,16 @@
         <v>80</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>1</v>
       </c>
@@ -3860,13 +3869,13 @@
         <v>80</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,16 +3886,16 @@
         <v>80</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>1</v>
       </c>
@@ -3894,13 +3903,13 @@
         <v>80</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>282</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,16 +3920,16 @@
         <v>80</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>1</v>
       </c>
@@ -3928,16 +3937,16 @@
         <v>80</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>1</v>
       </c>
@@ -3945,16 +3954,16 @@
         <v>80</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>1</v>
       </c>
@@ -3962,24 +3971,30 @@
         <v>80</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="7" t="s">
-        <v>529</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,16 +4002,16 @@
         <v>1</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>530</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,67 +4019,67 @@
         <v>1</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>524</v>
+        <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>525</v>
+        <v>13</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>527</v>
+        <v>95</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>533</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4072,50 +4087,44 @@
         <v>1</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,16 +4132,16 @@
         <v>1</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D130" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>282</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,112 +4149,118 @@
         <v>1</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>14</v>
+        <v>523</v>
       </c>
       <c r="D131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E137" s="5" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4253,16 +4268,16 @@
         <v>1</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>97</v>
+        <v>521</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,44 +4285,44 @@
         <v>1</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="7" t="s">
-        <v>364</v>
+      <c r="C141" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,16 +4330,16 @@
         <v>1</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,16 +4347,16 @@
         <v>1</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4349,27 +4364,33 @@
         <v>1</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,16 +4398,16 @@
         <v>1</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4394,44 +4415,44 @@
         <v>1</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>372</v>
+      <c r="A148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4439,78 +4460,78 @@
         <v>1</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,33 +4539,27 @@
         <v>1</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>302</v>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,16 +4567,16 @@
         <v>1</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,44 +4584,44 @@
         <v>1</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>379</v>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4614,33 +4629,33 @@
         <v>1</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4648,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>36</v>
@@ -4665,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>37</v>
@@ -4682,42 +4697,44 @@
         <v>1</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>381</v>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4725,16 +4742,16 @@
         <v>1</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4742,16 +4759,16 @@
         <v>1</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4759,16 +4776,16 @@
         <v>1</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4776,16 +4793,16 @@
         <v>1</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4793,16 +4810,16 @@
         <v>1</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>516</v>
+        <v>37</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>517</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4810,44 +4827,42 @@
         <v>1</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="7" t="s">
-        <v>384</v>
+      <c r="C175" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,16 +4887,16 @@
         <v>1</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>386</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,16 +4904,16 @@
         <v>1</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,16 +4921,16 @@
         <v>1</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,16 +4938,16 @@
         <v>1</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>37</v>
+        <v>515</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>302</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4940,16 +4955,16 @@
         <v>1</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,27 +4972,27 @@
         <v>1</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="7" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,16 +5000,16 @@
         <v>1</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,16 +5017,16 @@
         <v>1</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,16 +5034,16 @@
         <v>1</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5036,16 +5051,16 @@
         <v>1</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5053,16 +5068,16 @@
         <v>1</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5070,16 +5085,16 @@
         <v>1</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,44 +5102,44 @@
         <v>1</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E190" s="5" t="s">
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="4" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E191" s="5" t="s">
+      <c r="C192" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="5" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,16 +5147,16 @@
         <v>1</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,16 +5164,16 @@
         <v>1</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,13 +5181,13 @@
         <v>1</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>305</v>
@@ -5183,16 +5198,16 @@
         <v>1</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5200,27 +5215,33 @@
         <v>1</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D198" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="7" t="s">
-        <v>394</v>
+      <c r="E198" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5228,33 +5249,27 @@
         <v>1</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>395</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,16 +5277,16 @@
         <v>1</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5279,27 +5294,33 @@
         <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="7" t="s">
-        <v>396</v>
+      <c r="A203" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5324,33 +5345,27 @@
         <v>1</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>398</v>
+      <c r="A206" s="6"/>
+      <c r="B206" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,33 +5373,33 @@
         <v>1</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5392,16 +5407,16 @@
         <v>1</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,33 +5424,27 @@
         <v>1</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>403</v>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,13 +5455,13 @@
         <v>148</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,13 +5472,13 @@
         <v>148</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,13 +5489,13 @@
         <v>148</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>282</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,41 +5506,47 @@
         <v>148</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5539,33 +5554,33 @@
         <v>1</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5573,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>36</v>
@@ -5590,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>37</v>
@@ -5603,14 +5618,20 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="7" t="s">
-        <v>405</v>
+      <c r="A222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5618,33 +5639,27 @@
         <v>1</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>406</v>
+      <c r="A224" s="6"/>
+      <c r="B224" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5652,16 +5667,16 @@
         <v>1</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5669,16 +5684,16 @@
         <v>1</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,16 +5701,16 @@
         <v>1</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,16 +5718,16 @@
         <v>1</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5720,33 +5735,27 @@
         <v>1</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>412</v>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5757,16 +5766,16 @@
         <v>158</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>1</v>
       </c>
@@ -5774,16 +5783,16 @@
         <v>158</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>1</v>
       </c>
@@ -5791,13 +5800,13 @@
         <v>158</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5808,13 +5817,13 @@
         <v>158</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5825,13 +5834,13 @@
         <v>158</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5842,13 +5851,13 @@
         <v>158</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5859,16 +5868,16 @@
         <v>158</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>1</v>
       </c>
@@ -5876,13 +5885,13 @@
         <v>158</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5893,16 +5902,16 @@
         <v>158</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>1</v>
       </c>
@@ -5910,13 +5919,13 @@
         <v>158</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5927,13 +5936,13 @@
         <v>158</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5944,13 +5953,13 @@
         <v>158</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5961,13 +5970,13 @@
         <v>158</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>301</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5978,13 +5987,13 @@
         <v>158</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5995,16 +6004,16 @@
         <v>158</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>1</v>
       </c>
@@ -6012,16 +6021,16 @@
         <v>158</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>1</v>
       </c>
@@ -6029,16 +6038,16 @@
         <v>158</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>1</v>
       </c>
@@ -6046,16 +6055,16 @@
         <v>158</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>1</v>
       </c>
@@ -6063,13 +6072,13 @@
         <v>158</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6080,13 +6089,13 @@
         <v>158</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6097,13 +6106,13 @@
         <v>158</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>518</v>
+        <v>36</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>520</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6114,160 +6123,160 @@
         <v>158</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>519</v>
+        <v>37</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="7" t="s">
-        <v>428</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>434</v>
+        <v>519</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B260" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="6"/>
+      <c r="B261" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>436</v>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6278,24 +6287,30 @@
         <v>183</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="7" t="s">
-        <v>438</v>
+      <c r="A263" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6303,16 +6318,16 @@
         <v>182</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6320,16 +6335,16 @@
         <v>182</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6337,7 +6352,7 @@
         <v>182</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>189</v>
@@ -6346,7 +6361,7 @@
         <v>190</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6354,16 +6369,16 @@
         <v>182</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6371,16 +6386,16 @@
         <v>182</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6388,16 +6403,16 @@
         <v>182</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6405,36 +6420,30 @@
         <v>182</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>182</v>
       </c>
@@ -6442,13 +6451,13 @@
         <v>193</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6459,13 +6468,13 @@
         <v>193</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6476,13 +6485,13 @@
         <v>193</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,10 +6502,10 @@
         <v>193</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>305</v>
@@ -6510,10 +6519,10 @@
         <v>193</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>305</v>
@@ -6527,16 +6536,16 @@
         <v>193</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>182</v>
       </c>
@@ -6544,41 +6553,47 @@
         <v>193</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,16 +6601,16 @@
         <v>182</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6603,13 +6618,13 @@
         <v>182</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>305</v>
@@ -6620,13 +6635,13 @@
         <v>182</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>305</v>
@@ -6637,27 +6652,33 @@
         <v>182</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="7" t="s">
-        <v>447</v>
+      <c r="A285" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6665,33 +6686,27 @@
         <v>182</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="B287" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,44 +6714,50 @@
         <v>182</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D288" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E288" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E289" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6744,16 +6765,16 @@
         <v>182</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6761,103 +6782,97 @@
         <v>182</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D292" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="6"/>
+      <c r="B293" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E292" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E296" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>184</v>
@@ -6866,7 +6881,7 @@
         <v>23</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6874,16 +6889,16 @@
         <v>182</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6891,95 +6906,95 @@
         <v>182</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="6"/>
+      <c r="B305" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E302" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E304" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E305" s="5" t="s">
-        <v>466</v>
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,27 +7002,33 @@
         <v>182</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="7" t="s">
-        <v>462</v>
+      <c r="A307" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,16 +7036,16 @@
         <v>182</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7032,16 +7053,16 @@
         <v>182</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7049,7 +7070,7 @@
         <v>182</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>214</v>
@@ -7058,18 +7079,18 @@
         <v>4</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7077,7 +7098,7 @@
         <v>182</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>184</v>
@@ -7086,7 +7107,7 @@
         <v>23</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7094,16 +7115,16 @@
         <v>182</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7111,33 +7132,27 @@
         <v>182</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D315" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>305</v>
+      <c r="A315" s="6"/>
+      <c r="B315" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="7" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7145,16 +7160,16 @@
         <v>182</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7162,16 +7177,16 @@
         <v>182</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7179,33 +7194,27 @@
         <v>182</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C318" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>305</v>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="7" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7216,13 +7225,13 @@
         <v>233</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7233,13 +7242,13 @@
         <v>233</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>305</v>
+        <v>470</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7250,13 +7259,13 @@
         <v>233</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>305</v>
+        <v>471</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7267,10 +7276,10 @@
         <v>233</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>305</v>
@@ -7284,16 +7293,16 @@
         <v>233</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>182</v>
       </c>
@@ -7301,24 +7310,30 @@
         <v>233</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
-      <c r="B326" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7326,16 +7341,16 @@
         <v>182</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7343,16 +7358,16 @@
         <v>182</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7360,16 +7375,16 @@
         <v>182</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>483</v>
+        <v>305</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,16 +7392,16 @@
         <v>182</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>484</v>
+        <v>305</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7394,16 +7409,16 @@
         <v>182</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>485</v>
+        <v>305</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,61 +7426,61 @@
         <v>182</v>
       </c>
       <c r="B332" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="6"/>
+      <c r="B334" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D332" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B333" s="4" t="s">
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B335" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C333" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D333" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D334" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="7" t="s">
-        <v>473</v>
+      <c r="C335" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,16 +7488,16 @@
         <v>182</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7490,16 +7505,16 @@
         <v>182</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7507,16 +7522,16 @@
         <v>182</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7524,16 +7539,16 @@
         <v>182</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7541,67 +7556,61 @@
         <v>182</v>
       </c>
       <c r="B340" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="6"/>
+      <c r="B343" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E340" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>494</v>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7612,13 +7621,13 @@
         <v>252</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7629,13 +7638,13 @@
         <v>252</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>305</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7646,13 +7655,13 @@
         <v>252</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7663,16 +7672,16 @@
         <v>252</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>182</v>
       </c>
@@ -7680,16 +7689,16 @@
         <v>252</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>182</v>
       </c>
@@ -7697,16 +7706,16 @@
         <v>252</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>182</v>
       </c>
@@ -7714,24 +7723,30 @@
         <v>252</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="D350" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D351" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E350" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
-      <c r="B351" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="7" t="s">
-        <v>500</v>
+      <c r="E351" s="5" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -7739,16 +7754,16 @@
         <v>182</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -7756,16 +7771,16 @@
         <v>182</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>501</v>
+        <v>305</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7773,89 +7788,95 @@
         <v>182</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="6"/>
-      <c r="B355" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
       <c r="E359" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7863,16 +7884,16 @@
         <v>182</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7880,16 +7901,16 @@
         <v>182</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7897,66 +7918,190 @@
         <v>182</v>
       </c>
       <c r="B362" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="6"/>
+      <c r="B367" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C362" s="4" t="s">
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C370" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D362" s="4" t="s">
+      <c r="D370" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E362" s="5" t="s">
+      <c r="E370" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B363" s="4" t="s">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B371" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C371" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D363" s="4" t="s">
+      <c r="D371" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E363" s="5" t="s">
+      <c r="E371" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B364" s="4" t="s">
+    <row r="372" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C364" s="4" t="s">
+      <c r="C372" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D364" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E364" s="5" t="s">
+      <c r="D372" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E372" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B365" s="4" t="s">
+    <row r="373" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C365" s="4" t="s">
+      <c r="C373" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D365" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E365" s="5" t="s">
+      <c r="D373" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" s="5" t="s">
         <v>511</v>
       </c>
     </row>

--- a/EECIP/App_Docs/DataDictionary.xlsx
+++ b/EECIP/App_Docs/DataDictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="543">
   <si>
     <t>EECIP Data Dictionary</t>
   </si>
@@ -1624,9 +1624,6 @@
     <t>NO LONGER USED (replaced by T_OE_PROJECT_ORG table)</t>
   </si>
   <si>
-    <t>Corresponding with EECIP version v1.3b</t>
-  </si>
-  <si>
     <t>T_OE_PROJECT_ORGS</t>
   </si>
   <si>
@@ -1637,6 +1634,15 @@
   </si>
   <si>
     <t>PROJECT_ORG_IDX</t>
+  </si>
+  <si>
+    <t>NOTIFY_NEWSLETTER</t>
+  </si>
+  <si>
+    <t>Indicates whether the user has opted into receiving the EECIP newsletter</t>
+  </si>
+  <si>
+    <t>Corresponding with EECIP version v1.4</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,12 +3237,12 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>34</v>
@@ -3278,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>39</v>
@@ -3295,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>36</v>
@@ -3312,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -3329,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>13</v>
@@ -3346,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>14</v>
@@ -6268,32 +6274,32 @@
         <v>520</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="6"/>
+      <c r="B262" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="7" t="s">
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="7" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6304,13 +6310,13 @@
         <v>183</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6321,13 +6327,13 @@
         <v>183</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6338,13 +6344,13 @@
         <v>183</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6355,13 +6361,13 @@
         <v>183</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6372,13 +6378,13 @@
         <v>183</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6389,13 +6395,13 @@
         <v>183</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6406,13 +6412,13 @@
         <v>183</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,41 +6429,41 @@
         <v>183</v>
       </c>
       <c r="C270" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E270" s="5" t="s">
+      <c r="D271" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="7" t="s">
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="7" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6468,13 +6474,13 @@
         <v>193</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6485,13 +6491,13 @@
         <v>193</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6502,13 +6508,13 @@
         <v>193</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6519,7 +6525,7 @@
         <v>193</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>12</v>
@@ -6536,7 +6542,7 @@
         <v>193</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>12</v>
@@ -6553,13 +6559,13 @@
         <v>193</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>442</v>
+        <v>305</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6570,16 +6576,16 @@
         <v>193</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>182</v>
       </c>
@@ -6587,16 +6593,16 @@
         <v>193</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>182</v>
       </c>
@@ -6604,13 +6610,13 @@
         <v>193</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6621,13 +6627,13 @@
         <v>193</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6638,10 +6644,10 @@
         <v>193</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>305</v>
@@ -6655,10 +6661,10 @@
         <v>193</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>305</v>
@@ -6672,16 +6678,16 @@
         <v>193</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>182</v>
       </c>
@@ -6689,40 +6695,40 @@
         <v>193</v>
       </c>
       <c r="C286" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D286" s="4" t="s">
+      <c r="D287" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E286" s="5" t="s">
+      <c r="E287" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="6"/>
+      <c r="B288" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E288" s="5" t="s">
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="7" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6734,10 +6740,10 @@
         <v>209</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>305</v>
@@ -6751,10 +6757,10 @@
         <v>209</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>305</v>
@@ -6768,10 +6774,10 @@
         <v>209</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>305</v>
@@ -6785,7 +6791,7 @@
         <v>209</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>23</v>
@@ -6795,31 +6801,31 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6" t="s">
+      <c r="A293" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+      <c r="B294" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="7" t="s">
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="7" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6830,16 +6836,16 @@
         <v>213</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>182</v>
       </c>
@@ -6847,44 +6853,44 @@
         <v>213</v>
       </c>
       <c r="C296" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D296" s="4" t="s">
+      <c r="D297" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E296" s="5" t="s">
+      <c r="E297" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6" t="s">
+    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+      <c r="B298" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="7" t="s">
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>182</v>
       </c>
@@ -6892,13 +6898,13 @@
         <v>217</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,16 +6915,16 @@
         <v>217</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>182</v>
       </c>
@@ -6926,13 +6932,13 @@
         <v>217</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6943,16 +6949,16 @@
         <v>217</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>182</v>
       </c>
@@ -6960,16 +6966,16 @@
         <v>217</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>182</v>
       </c>
@@ -6977,41 +6983,41 @@
         <v>217</v>
       </c>
       <c r="C304" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D304" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E304" s="5" t="s">
+      <c r="D305" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6" t="s">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="6"/>
+      <c r="B306" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="7" t="s">
+      <c r="C306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="7" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E306" s="5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7022,13 +7028,13 @@
         <v>224</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,13 +7045,13 @@
         <v>224</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,16 +7062,16 @@
         <v>224</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>182</v>
       </c>
@@ -7073,41 +7079,41 @@
         <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D310" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E310" s="5" t="s">
+      <c r="D311" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6" t="s">
+    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="6"/>
+      <c r="B312" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="7" t="s">
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="7" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E312" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7118,13 +7124,13 @@
         <v>227</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7135,41 +7141,41 @@
         <v>227</v>
       </c>
       <c r="C314" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D314" s="4" t="s">
+      <c r="D315" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E314" s="5" t="s">
+      <c r="E315" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6" t="s">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="7" t="s">
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="7" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D316" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7180,16 +7186,16 @@
         <v>231</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>182</v>
       </c>
@@ -7197,41 +7203,41 @@
         <v>231</v>
       </c>
       <c r="C318" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C319" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E318" s="5" t="s">
+      <c r="D319" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6" t="s">
+    <row r="320" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A320" s="6"/>
+      <c r="B320" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="7" t="s">
+      <c r="C320" s="6"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="7" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7242,13 +7248,13 @@
         <v>233</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7259,13 +7265,13 @@
         <v>233</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,13 +7282,13 @@
         <v>233</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>305</v>
+        <v>471</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7293,13 +7299,13 @@
         <v>233</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>477</v>
+        <v>305</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7310,16 +7316,16 @@
         <v>233</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>182</v>
       </c>
@@ -7327,16 +7333,16 @@
         <v>233</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>182</v>
       </c>
@@ -7344,13 +7350,13 @@
         <v>233</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>305</v>
+        <v>472</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,13 +7367,13 @@
         <v>233</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>479</v>
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7378,13 +7384,13 @@
         <v>233</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>305</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,10 +7401,10 @@
         <v>233</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>305</v>
@@ -7412,10 +7418,10 @@
         <v>233</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>305</v>
@@ -7429,16 +7435,16 @@
         <v>233</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>182</v>
       </c>
@@ -7446,41 +7452,41 @@
         <v>233</v>
       </c>
       <c r="C333" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C334" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E333" s="5" t="s">
+      <c r="D334" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
-      <c r="B334" s="6" t="s">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="6"/>
+      <c r="B335" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="7" t="s">
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="7" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7491,13 +7497,13 @@
         <v>245</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7508,13 +7514,13 @@
         <v>245</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7525,13 +7531,13 @@
         <v>245</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7542,13 +7548,13 @@
         <v>245</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7559,13 +7565,13 @@
         <v>245</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7576,16 +7582,16 @@
         <v>245</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>182</v>
       </c>
@@ -7593,41 +7599,41 @@
         <v>245</v>
       </c>
       <c r="C342" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C343" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D342" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E342" s="5" t="s">
+      <c r="D343" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6" t="s">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="6"/>
+      <c r="B344" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="7" t="s">
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="7" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E344" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7638,13 +7644,13 @@
         <v>252</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,13 +7661,13 @@
         <v>252</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7672,13 +7678,13 @@
         <v>252</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7689,16 +7695,16 @@
         <v>252</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>182</v>
       </c>
@@ -7706,16 +7712,16 @@
         <v>252</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>182</v>
       </c>
@@ -7723,16 +7729,16 @@
         <v>252</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>182</v>
       </c>
@@ -7740,16 +7746,16 @@
         <v>252</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>182</v>
       </c>
@@ -7757,13 +7763,13 @@
         <v>252</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -7774,13 +7780,13 @@
         <v>252</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>305</v>
+        <v>495</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7791,13 +7797,13 @@
         <v>252</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>496</v>
+        <v>305</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7808,16 +7814,16 @@
         <v>252</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>182</v>
       </c>
@@ -7825,13 +7831,13 @@
         <v>252</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7842,16 +7848,16 @@
         <v>252</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>182</v>
       </c>
@@ -7859,41 +7865,41 @@
         <v>252</v>
       </c>
       <c r="C358" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C359" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D358" s="4" t="s">
+      <c r="D359" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E358" s="5" t="s">
+      <c r="E359" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="6"/>
-      <c r="B359" s="6" t="s">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="6"/>
+      <c r="B360" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-      <c r="E359" s="7" t="s">
+      <c r="C360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="7" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D360" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,13 +7910,13 @@
         <v>258</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,41 +7927,41 @@
         <v>258</v>
       </c>
       <c r="C362" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D362" s="4" t="s">
+      <c r="D363" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E362" s="5" t="s">
+      <c r="E363" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6" t="s">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="6"/>
+      <c r="B364" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
-      <c r="E363" s="7" t="s">
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="7" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7966,16 +7972,16 @@
         <v>261</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>182</v>
       </c>
@@ -7983,41 +7989,41 @@
         <v>261</v>
       </c>
       <c r="C366" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C367" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D366" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E366" s="5" t="s">
+      <c r="D367" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6" t="s">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="6"/>
+      <c r="B368" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
-      <c r="E367" s="7" t="s">
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="7" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E368" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8028,13 +8034,13 @@
         <v>262</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,13 +8051,13 @@
         <v>262</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,16 +8068,16 @@
         <v>262</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>182</v>
       </c>
@@ -8079,13 +8085,13 @@
         <v>262</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8096,12 +8102,29 @@
         <v>262</v>
       </c>
       <c r="C373" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C374" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D373" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E373" s="5" t="s">
+      <c r="D374" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="5" t="s">
         <v>511</v>
       </c>
     </row>

--- a/EECIP/App_Docs/DataDictionary.xlsx
+++ b/EECIP/App_Docs/DataDictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="548">
   <si>
     <t>EECIP Data Dictionary</t>
   </si>
@@ -874,12 +874,6 @@
     <t>This table stores custom global application settings. This table is for those applciation settings which couldn't be handled by the generic T_OE_APP_SETTINGS table, because (for example) the value that needed to be stored for the setting is too large for the T_OE_APP_SETTINGS table. For this table, each custom setting is represented by a different column, and this table should only ever have 1 row/record.</t>
   </si>
   <si>
-    <t>Stores the EECIP site's terms and conditions.</t>
-  </si>
-  <si>
-    <t>Stores any system announcements that can be set by an administrator, which are then viewable by users on the dashboard when they log in.</t>
-  </si>
-  <si>
     <t>This table stores the Enterprise Service records that have been entered for a particular agency.</t>
   </si>
   <si>
@@ -1198,9 +1192,6 @@
     <t>The log message.</t>
   </si>
   <si>
-    <t>This table stores the expertise or interests for the particualr user.</t>
-  </si>
-  <si>
     <t>The user's expertise or interest. This can either be referencing the T_OE_REF_TAGS table or be a user-supplied value.</t>
   </si>
   <si>
@@ -1558,9 +1549,6 @@
     <t>TAG_DESC</t>
   </si>
   <si>
-    <t>Description of tag (used when promoting ocmmunities of interest)</t>
-  </si>
-  <si>
     <t>PROMOTE_IND</t>
   </si>
   <si>
@@ -1642,7 +1630,34 @@
     <t>Indicates whether the user has opted into receiving the EECIP newsletter</t>
   </si>
   <si>
-    <t>Corresponding with EECIP version v1.4</t>
+    <t>Stores the EECIP site's terms and conditions. Limited to 10,000 characters</t>
+  </si>
+  <si>
+    <t>Stores any system announcements that can be set by an administrator, which are then viewable by users on the dashboard when they log in. Limited to 10,000 characters</t>
+  </si>
+  <si>
+    <t>WELCOME_EMAIL</t>
+  </si>
+  <si>
+    <t>Email template used when sending out welcome emails to users upon registration</t>
+  </si>
+  <si>
+    <t>Corresponding with EECIP version v20220427</t>
+  </si>
+  <si>
+    <t>LAST_NOTIFY_DT</t>
+  </si>
+  <si>
+    <t>PROJ_DESC_HTML</t>
+  </si>
+  <si>
+    <t>Project description stored in Html format (for rich-text display of project).</t>
+  </si>
+  <si>
+    <t>This table stores the expertise or interests for the particular user.</t>
+  </si>
+  <si>
+    <t>Description of tag (used when promoting communities of interest)</t>
   </si>
 </sst>
 </file>
@@ -2044,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,10 +2273,10 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -2275,35 +2290,35 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>291</v>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,13 +2329,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2331,16 +2346,16 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -2348,16 +2363,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
@@ -2365,13 +2380,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,13 +2397,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,13 +2414,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,13 +2431,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,16 +2448,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -2450,16 +2465,16 @@
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>4</v>
@@ -2484,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2501,13 +2516,13 @@
         <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2518,41 +2533,41 @@
         <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,13 +2578,13 @@
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,16 +2595,16 @@
         <v>38</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -2597,16 +2612,16 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
@@ -2614,13 +2629,13 @@
         <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,13 +2646,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,16 +2663,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -2665,16 +2680,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
@@ -2682,16 +2697,16 @@
         <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -2699,16 +2714,16 @@
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
@@ -2716,13 +2731,13 @@
         <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,13 +2748,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,13 +2765,13 @@
         <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,16 +2782,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -2784,44 +2799,44 @@
         <v>38</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
@@ -2829,16 +2844,16 @@
         <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
@@ -2846,13 +2861,13 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,44 +2878,44 @@
         <v>53</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
@@ -2908,16 +2923,16 @@
         <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
@@ -2925,13 +2940,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2942,16 +2957,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
@@ -2959,16 +2974,16 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1</v>
       </c>
@@ -2976,13 +2991,13 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2993,13 +3008,13 @@
         <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3010,16 +3025,16 @@
         <v>55</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
@@ -3027,16 +3042,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
@@ -3044,16 +3059,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -3061,16 +3076,16 @@
         <v>55</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -3078,13 +3093,13 @@
         <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,13 +3110,13 @@
         <v>55</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,13 +3127,13 @@
         <v>55</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,41 +3144,41 @@
         <v>55</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>272</v>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,16 +3189,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>1</v>
       </c>
@@ -3191,16 +3206,16 @@
         <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1</v>
       </c>
@@ -3208,13 +3223,13 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3225,41 +3240,41 @@
         <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7" t="s">
-        <v>537</v>
+      <c r="E75" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>538</v>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,16 +3282,16 @@
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>34</v>
+        <v>535</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>300</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,16 +3299,16 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,16 +3316,16 @@
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3335,16 +3350,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3352,44 +3367,44 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>300</v>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,16 +3415,16 @@
         <v>67</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
@@ -3417,16 +3432,16 @@
         <v>67</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>1</v>
       </c>
@@ -3434,13 +3449,13 @@
         <v>67</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,41 +3466,41 @@
         <v>67</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6" t="s">
+      <c r="E89" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>330</v>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,13 +3511,13 @@
         <v>70</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,13 +3528,13 @@
         <v>70</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,40 +3545,40 @@
         <v>70</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
+      <c r="E94" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3575,13 +3590,13 @@
         <v>74</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,10 +3607,10 @@
         <v>74</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>337</v>
@@ -3609,13 +3624,13 @@
         <v>74</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,16 +3641,16 @@
         <v>74</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>1</v>
       </c>
@@ -3643,41 +3658,41 @@
         <v>74</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
+      <c r="D101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>300</v>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,13 +3703,13 @@
         <v>80</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>535</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,13 +3720,13 @@
         <v>80</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>323</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,13 +3737,13 @@
         <v>80</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,13 +3754,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,13 +3771,13 @@
         <v>80</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,13 +3788,13 @@
         <v>80</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,16 +3805,16 @@
         <v>80</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
@@ -3807,16 +3822,16 @@
         <v>80</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>1</v>
       </c>
@@ -3824,16 +3839,16 @@
         <v>80</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>1</v>
       </c>
@@ -3841,16 +3856,16 @@
         <v>80</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>1</v>
       </c>
@@ -3858,16 +3873,16 @@
         <v>80</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>1</v>
       </c>
@@ -3875,16 +3890,16 @@
         <v>80</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>1</v>
       </c>
@@ -3892,16 +3907,16 @@
         <v>80</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>1</v>
       </c>
@@ -3909,16 +3924,16 @@
         <v>80</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>1</v>
       </c>
@@ -3926,16 +3941,16 @@
         <v>80</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>1</v>
       </c>
@@ -3943,16 +3958,16 @@
         <v>80</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>1</v>
       </c>
@@ -3960,13 +3975,13 @@
         <v>80</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,16 +3992,16 @@
         <v>80</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>1</v>
       </c>
@@ -3994,16 +4009,16 @@
         <v>80</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -4011,13 +4026,13 @@
         <v>80</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,13 +4043,13 @@
         <v>80</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,13 +4060,13 @@
         <v>80</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,16 +4077,16 @@
         <v>80</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>1</v>
       </c>
@@ -4079,16 +4094,16 @@
         <v>80</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>1</v>
       </c>
@@ -4096,10 +4111,10 @@
         <v>80</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>350</v>
@@ -4113,24 +4128,30 @@
         <v>80</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="7" t="s">
-        <v>528</v>
+      <c r="D129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,16 +4159,16 @@
         <v>1</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4155,67 +4176,61 @@
         <v>1</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>530</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4223,67 +4238,67 @@
         <v>1</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D136" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>37</v>
+        <v>522</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>13</v>
+        <v>523</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>282</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,27 +4306,33 @@
         <v>1</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="7" t="s">
-        <v>358</v>
+      <c r="E140" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4319,16 +4340,16 @@
         <v>1</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>97</v>
+        <v>517</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,36 +4357,30 @@
         <v>1</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>1</v>
       </c>
@@ -4373,16 +4388,16 @@
         <v>97</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>1</v>
       </c>
@@ -4390,13 +4405,13 @@
         <v>97</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4407,16 +4422,16 @@
         <v>97</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>1</v>
       </c>
@@ -4424,16 +4439,16 @@
         <v>97</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>1</v>
       </c>
@@ -4441,24 +4456,30 @@
         <v>97</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4466,16 +4487,16 @@
         <v>1</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4483,44 +4504,44 @@
         <v>1</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="7" t="s">
-        <v>368</v>
+      <c r="C153" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4528,44 +4549,44 @@
         <v>1</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,16 +4594,16 @@
         <v>1</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,44 +4611,44 @@
         <v>1</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="7" t="s">
-        <v>375</v>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4635,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4652,33 +4673,27 @@
         <v>1</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>301</v>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4689,16 +4704,16 @@
         <v>113</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>1</v>
       </c>
@@ -4706,13 +4721,13 @@
         <v>113</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4723,24 +4738,30 @@
         <v>113</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="7" t="s">
-        <v>378</v>
+      <c r="E167" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4748,16 +4769,16 @@
         <v>1</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4765,33 +4786,27 @@
         <v>1</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>305</v>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,13 +4817,13 @@
         <v>116</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,13 +4834,13 @@
         <v>116</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4836,39 +4851,47 @@
         <v>116</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>512</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="7"/>
+      <c r="A174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4876,34 +4899,26 @@
         <v>1</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>514</v>
-      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -4913,13 +4928,13 @@
         <v>121</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,13 +4945,13 @@
         <v>121</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,13 +4962,13 @@
         <v>121</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,13 +4979,13 @@
         <v>121</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,24 +4996,30 @@
         <v>121</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="7" t="s">
-        <v>384</v>
+      <c r="A183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5006,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,33 +5044,27 @@
         <v>1</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>387</v>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5060,13 +5075,13 @@
         <v>125</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +5092,13 @@
         <v>125</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5094,13 +5109,13 @@
         <v>125</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,24 +5126,30 @@
         <v>125</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D190" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="7" t="s">
-        <v>305</v>
+      <c r="E191" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5136,16 +5157,16 @@
         <v>1</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5153,33 +5174,27 @@
         <v>1</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="4" t="s">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>305</v>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5190,13 +5205,13 @@
         <v>130</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,13 +5222,13 @@
         <v>130</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5224,13 +5239,13 @@
         <v>130</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5241,13 +5256,13 @@
         <v>130</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5258,24 +5273,30 @@
         <v>130</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="7" t="s">
-        <v>389</v>
+      <c r="A200" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,16 +5304,16 @@
         <v>1</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,33 +5321,27 @@
         <v>1</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>305</v>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,13 +5352,13 @@
         <v>141</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5354,24 +5369,30 @@
         <v>141</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="7" t="s">
-        <v>394</v>
+      <c r="A206" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5379,50 +5400,44 @@
         <v>1</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>301</v>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="7" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,24 +5448,30 @@
         <v>145</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="7" t="s">
-        <v>396</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5458,16 +5479,16 @@
         <v>1</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5475,33 +5496,27 @@
         <v>1</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>398</v>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="7" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5512,13 +5527,13 @@
         <v>148</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,13 +5544,13 @@
         <v>148</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,13 +5561,13 @@
         <v>148</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5563,16 +5578,16 @@
         <v>148</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>1</v>
       </c>
@@ -5580,13 +5595,13 @@
         <v>148</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,13 +5612,13 @@
         <v>148</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,16 +5629,16 @@
         <v>148</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -5631,13 +5646,13 @@
         <v>148</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5648,41 +5663,47 @@
         <v>148</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D223" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E223" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E224" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5690,36 +5711,30 @@
         <v>1</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>1</v>
       </c>
@@ -5727,13 +5742,13 @@
         <v>156</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5744,24 +5759,30 @@
         <v>156</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="7" t="s">
-        <v>405</v>
+      <c r="A230" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,50 +5790,44 @@
         <v>1</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>407</v>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5823,16 +5838,16 @@
         <v>158</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>1</v>
       </c>
@@ -5840,16 +5855,16 @@
         <v>158</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>1</v>
       </c>
@@ -5857,13 +5872,13 @@
         <v>158</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5874,16 +5889,16 @@
         <v>158</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>1</v>
       </c>
@@ -5891,13 +5906,13 @@
         <v>158</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5923,13 @@
         <v>158</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5925,16 +5940,16 @@
         <v>158</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>1</v>
       </c>
@@ -5942,13 +5957,13 @@
         <v>158</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,13 +5974,13 @@
         <v>158</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5976,13 +5991,13 @@
         <v>158</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5993,13 +6008,13 @@
         <v>158</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6010,16 +6025,16 @@
         <v>158</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>1</v>
       </c>
@@ -6027,13 +6042,13 @@
         <v>158</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6044,16 +6059,16 @@
         <v>158</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>1</v>
       </c>
@@ -6061,16 +6076,16 @@
         <v>158</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>1</v>
       </c>
@@ -6078,13 +6093,13 @@
         <v>158</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6095,16 +6110,16 @@
         <v>158</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>1</v>
       </c>
@@ -6112,13 +6127,13 @@
         <v>158</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6129,13 +6144,13 @@
         <v>158</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6146,13 +6161,13 @@
         <v>158</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6163,16 +6178,16 @@
         <v>158</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>1</v>
       </c>
@@ -6180,13 +6195,13 @@
         <v>158</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>424</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6197,16 +6212,16 @@
         <v>158</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>1</v>
       </c>
@@ -6214,16 +6229,16 @@
         <v>158</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>1</v>
       </c>
@@ -6231,13 +6246,13 @@
         <v>158</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6248,16 +6263,16 @@
         <v>158</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>517</v>
+        <v>179</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>1</v>
       </c>
@@ -6265,13 +6280,13 @@
         <v>158</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>518</v>
+        <v>180</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>520</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6282,75 +6297,75 @@
         <v>158</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>540</v>
+        <v>181</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>184</v>
+        <v>514</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>429</v>
+        <v>516</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="6"/>
+      <c r="B265" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>431</v>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6361,13 +6376,13 @@
         <v>183</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6378,13 +6393,13 @@
         <v>183</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,13 +6410,13 @@
         <v>183</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6412,13 +6427,13 @@
         <v>183</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,13 +6444,13 @@
         <v>183</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6446,24 +6461,30 @@
         <v>183</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="7" t="s">
-        <v>438</v>
+      <c r="A272" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,16 +6492,16 @@
         <v>182</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6488,33 +6509,27 @@
         <v>182</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+      <c r="B275" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>441</v>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,13 +6540,13 @@
         <v>193</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6542,13 +6557,13 @@
         <v>193</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>305</v>
+        <v>437</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6559,13 +6574,13 @@
         <v>193</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>305</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6576,13 +6591,13 @@
         <v>193</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>442</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6593,16 +6608,16 @@
         <v>193</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>182</v>
       </c>
@@ -6610,13 +6625,13 @@
         <v>193</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>444</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,13 +6642,13 @@
         <v>193</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6644,16 +6659,16 @@
         <v>193</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>182</v>
       </c>
@@ -6661,13 +6676,13 @@
         <v>193</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,13 +6693,13 @@
         <v>193</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>305</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6695,16 +6710,16 @@
         <v>193</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>182</v>
       </c>
@@ -6712,24 +6727,30 @@
         <v>193</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>446</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="7" t="s">
-        <v>305</v>
+      <c r="A288" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6737,50 +6758,44 @@
         <v>182</v>
       </c>
       <c r="B289" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D290" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>305</v>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6791,13 +6806,13 @@
         <v>209</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6808,86 +6823,92 @@
         <v>209</v>
       </c>
       <c r="C293" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>450</v>
+        <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B297" s="4" t="s">
+      <c r="A297" s="6"/>
+      <c r="B297" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C297" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E297" s="5" t="s">
-        <v>449</v>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="7" t="s">
-        <v>453</v>
+      <c r="A298" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6895,16 +6916,16 @@
         <v>182</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6912,36 +6933,30 @@
         <v>182</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+      <c r="B301" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C300" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>182</v>
       </c>
@@ -6949,16 +6964,16 @@
         <v>217</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>182</v>
       </c>
@@ -6966,13 +6981,13 @@
         <v>217</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,16 +6998,16 @@
         <v>217</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>182</v>
       </c>
@@ -7000,24 +7015,30 @@
         <v>217</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
-      <c r="B306" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,50 +7046,44 @@
         <v>182</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="6"/>
+      <c r="B309" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C307" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D308" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E309" s="5" t="s">
-        <v>461</v>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="7" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7079,16 +7094,16 @@
         <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>182</v>
       </c>
@@ -7096,24 +7111,30 @@
         <v>224</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
-      <c r="B312" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7121,61 +7142,61 @@
         <v>182</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="6"/>
+      <c r="B315" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D313" s="4" t="s">
+      <c r="D316" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E313" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D314" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D315" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="7" t="s">
-        <v>462</v>
+      <c r="E316" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7183,16 +7204,16 @@
         <v>182</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7200,44 +7221,44 @@
         <v>182</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B319" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C319" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
-      <c r="B320" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="7" t="s">
-        <v>474</v>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7245,49 +7266,43 @@
         <v>182</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A323" s="6"/>
+      <c r="B323" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E323" s="5" t="s">
+      <c r="C323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="7" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7299,13 +7314,13 @@
         <v>233</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>305</v>
+        <v>456</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7316,13 +7331,13 @@
         <v>233</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,16 +7348,16 @@
         <v>233</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>182</v>
       </c>
@@ -7350,13 +7365,13 @@
         <v>233</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>472</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7367,13 +7382,13 @@
         <v>233</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7384,16 +7399,16 @@
         <v>233</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>182</v>
       </c>
@@ -7401,13 +7416,13 @@
         <v>233</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>305</v>
+        <v>469</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7418,13 +7433,13 @@
         <v>233</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7435,13 +7450,13 @@
         <v>233</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7452,16 +7467,16 @@
         <v>233</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>182</v>
       </c>
@@ -7469,24 +7484,30 @@
         <v>233</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="7" t="s">
-        <v>475</v>
+      <c r="A335" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7494,50 +7515,44 @@
         <v>182</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="6"/>
+      <c r="B338" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>483</v>
+      <c r="C338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7548,13 +7563,13 @@
         <v>245</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,13 +7580,13 @@
         <v>245</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7582,13 +7597,13 @@
         <v>245</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,16 +7614,16 @@
         <v>245</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>182</v>
       </c>
@@ -7616,24 +7631,30 @@
         <v>245</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="7" t="s">
-        <v>473</v>
+      <c r="A344" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,50 +7662,44 @@
         <v>182</v>
       </c>
       <c r="B345" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="6"/>
+      <c r="B347" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C345" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E347" s="5" t="s">
-        <v>490</v>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="7" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7695,13 +7710,13 @@
         <v>252</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7712,16 +7727,16 @@
         <v>252</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>182</v>
       </c>
@@ -7729,13 +7744,13 @@
         <v>252</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7746,16 +7761,16 @@
         <v>252</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>182</v>
       </c>
@@ -7763,16 +7778,16 @@
         <v>252</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>182</v>
       </c>
@@ -7780,13 +7795,13 @@
         <v>252</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7797,16 +7812,16 @@
         <v>252</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>182</v>
       </c>
@@ -7814,13 +7829,13 @@
         <v>252</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7831,16 +7846,16 @@
         <v>252</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>182</v>
       </c>
@@ -7848,16 +7863,16 @@
         <v>252</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>182</v>
       </c>
@@ -7865,16 +7880,16 @@
         <v>252</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>182</v>
       </c>
@@ -7882,86 +7897,92 @@
         <v>252</v>
       </c>
       <c r="C359" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C362" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D359" s="4" t="s">
+      <c r="D362" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="6"/>
-      <c r="B360" s="6" t="s">
+      <c r="E362" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-      <c r="E360" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B361" s="4" t="s">
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="C364" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D361" s="4" t="s">
+      <c r="D364" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E361" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D363" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="7" t="s">
-        <v>504</v>
+      <c r="E364" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7969,16 +7990,16 @@
         <v>182</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -7986,44 +8007,44 @@
         <v>182</v>
       </c>
       <c r="B366" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="6"/>
+      <c r="B367" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D366" s="4" t="s">
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D368" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E366" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="7" t="s">
-        <v>506</v>
+      <c r="E368" s="5" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8031,50 +8052,44 @@
         <v>182</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B370" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="6"/>
+      <c r="B371" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C370" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D371" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E371" s="5" t="s">
-        <v>509</v>
+      <c r="C371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8085,16 +8100,16 @@
         <v>262</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>182</v>
       </c>
@@ -8102,16 +8117,16 @@
         <v>262</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>182</v>
       </c>
@@ -8119,13 +8134,64 @@
         <v>262</v>
       </c>
       <c r="C374" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C377" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D374" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>511</v>
+      <c r="D377" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
